--- a/Trello Workspace Board ID's.xlsx
+++ b/Trello Workspace Board ID's.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
-    <x:t>62b67a354ca480872e59cae3</x:t>
+    <x:t>62b749e90180a45fe508211a</x:t>
   </x:si>
   <x:si>
     <x:t>.NET Requirements</x:t>
@@ -449,7 +449,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="17.930781" defaultRowHeight="12.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="27.168906" defaultRowHeight="12.8" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">

--- a/Trello Workspace Board ID's.xlsx
+++ b/Trello Workspace Board ID's.xlsx
@@ -449,7 +449,7 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="27.168906" defaultRowHeight="12.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="29.300781" defaultRowHeight="12.8" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:2"/>
     <x:row r="2" spans="1:2">
